--- a/production.xlsx
+++ b/production.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -457,119 +457,119 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-08-27</v>
+        <v>2025-08-01</v>
       </c>
       <c r="B2">
-        <v>878</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>78787</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>878</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>787</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>878</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>787</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>878</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>787</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>878</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>2543</v>
+        <v>12</v>
       </c>
       <c r="M2">
-        <v>79743</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>1574</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>1756</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>4117</v>
+        <v>14</v>
       </c>
       <c r="Q2">
-        <v>81499</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025-08-27</v>
+        <v>2025-08-02</v>
       </c>
       <c r="B3">
+        <v>909090</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>909</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <v>909</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>909</v>
+      </c>
+      <c r="L3">
+        <v>910089</v>
+      </c>
+      <c r="M3">
+        <v>100000</v>
+      </c>
+      <c r="N3">
         <v>99</v>
       </c>
-      <c r="C3">
-        <v>99</v>
-      </c>
-      <c r="D3">
-        <v>99</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>99</v>
-      </c>
-      <c r="G3">
-        <v>99</v>
-      </c>
-      <c r="H3">
-        <v>99</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>99</v>
-      </c>
-      <c r="K3">
-        <v>99</v>
-      </c>
-      <c r="L3">
-        <v>297</v>
-      </c>
-      <c r="M3">
-        <v>207</v>
-      </c>
-      <c r="N3">
-        <v>198</v>
-      </c>
       <c r="O3">
-        <v>108</v>
+        <v>1818</v>
       </c>
       <c r="P3">
-        <v>495</v>
+        <v>910188</v>
       </c>
       <c r="Q3">
-        <v>315</v>
+        <v>101818</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025-08-27</v>
+        <v>2025-08-03</v>
       </c>
       <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
         <v>9009</v>
-      </c>
-      <c r="C4">
-        <v>90</v>
       </c>
       <c r="D4">
         <v>909</v>
@@ -578,13 +578,13 @@
         <v>90</v>
       </c>
       <c r="F4">
-        <v>90</v>
+        <v>9090</v>
       </c>
       <c r="G4">
+        <v>90</v>
+      </c>
+      <c r="H4">
         <v>909</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
       </c>
       <c r="I4">
         <v>9</v>
@@ -596,80 +596,239 @@
         <v>90</v>
       </c>
       <c r="L4">
-        <v>10008</v>
+        <v>10089</v>
       </c>
       <c r="M4">
-        <v>1089</v>
+        <v>90</v>
       </c>
       <c r="N4">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="O4">
         <v>99</v>
       </c>
       <c r="P4">
-        <v>10107</v>
+        <v>11088</v>
       </c>
       <c r="Q4">
-        <v>1188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025-08-27</v>
+        <v>2025-08-04</v>
       </c>
       <c r="B5">
-        <v>98989</v>
+        <v>9090</v>
       </c>
       <c r="C5">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="D5">
-        <v>989</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5">
-        <v>889</v>
+        <v>90</v>
       </c>
       <c r="G5">
-        <v>898</v>
+        <v>90</v>
       </c>
       <c r="H5">
-        <v>98</v>
+        <v>909</v>
       </c>
       <c r="I5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>98</v>
+        <v>909</v>
       </c>
       <c r="K5">
-        <v>989</v>
+        <v>90</v>
       </c>
       <c r="L5">
-        <v>100867</v>
+        <v>9189</v>
       </c>
       <c r="M5">
-        <v>1885</v>
+        <v>1089</v>
       </c>
       <c r="N5">
-        <v>196</v>
+        <v>1818</v>
       </c>
       <c r="O5">
-        <v>1087</v>
+        <v>90</v>
       </c>
       <c r="P5">
-        <v>101063</v>
+        <v>11007</v>
       </c>
       <c r="Q5">
-        <v>2972</v>
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2025-08-14</v>
+      </c>
+      <c r="B6">
+        <v>99990</v>
+      </c>
+      <c r="C6">
+        <v>87788</v>
+      </c>
+      <c r="D6">
+        <v>787887</v>
+      </c>
+      <c r="E6">
+        <v>87887</v>
+      </c>
+      <c r="F6">
+        <v>78787</v>
+      </c>
+      <c r="G6">
+        <v>787878</v>
+      </c>
+      <c r="H6">
+        <v>8777</v>
+      </c>
+      <c r="I6">
+        <v>8787</v>
+      </c>
+      <c r="J6">
+        <v>78</v>
+      </c>
+      <c r="K6">
+        <v>7878</v>
+      </c>
+      <c r="L6">
+        <v>966664</v>
+      </c>
+      <c r="M6">
+        <v>963553</v>
+      </c>
+      <c r="N6">
+        <v>8855</v>
+      </c>
+      <c r="O6">
+        <v>16665</v>
+      </c>
+      <c r="P6">
+        <v>975519</v>
+      </c>
+      <c r="Q6">
+        <v>980218</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2025-08-28</v>
+      </c>
+      <c r="B7">
+        <v>7877</v>
+      </c>
+      <c r="C7">
+        <v>8787</v>
+      </c>
+      <c r="D7">
+        <v>787</v>
+      </c>
+      <c r="E7">
+        <v>8787</v>
+      </c>
+      <c r="F7">
+        <v>87</v>
+      </c>
+      <c r="G7">
+        <v>878</v>
+      </c>
+      <c r="H7">
+        <v>7877</v>
+      </c>
+      <c r="I7">
+        <v>887</v>
+      </c>
+      <c r="J7">
+        <v>878</v>
+      </c>
+      <c r="K7">
+        <v>78</v>
+      </c>
+      <c r="L7">
+        <v>8751</v>
+      </c>
+      <c r="M7">
+        <v>18452</v>
+      </c>
+      <c r="N7">
+        <v>8755</v>
+      </c>
+      <c r="O7">
+        <v>965</v>
+      </c>
+      <c r="P7">
+        <v>17506</v>
+      </c>
+      <c r="Q7">
+        <v>19417</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2025-08-29</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/production.xlsx
+++ b/production.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -457,378 +457,219 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-08-01</v>
+        <v>2025-08-30</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>880</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025-08-02</v>
+        <v>2025-08-31</v>
       </c>
       <c r="B3">
-        <v>909090</v>
+        <v>90</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>800</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>909</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H3">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I3">
-        <v>909</v>
+        <v>78</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>909</v>
+        <v>98</v>
       </c>
       <c r="L3">
-        <v>910089</v>
+        <v>240</v>
       </c>
       <c r="M3">
-        <v>100000</v>
+        <v>239</v>
       </c>
       <c r="N3">
-        <v>99</v>
+        <v>6865</v>
       </c>
       <c r="O3">
-        <v>1818</v>
+        <v>176</v>
       </c>
       <c r="P3">
-        <v>910188</v>
+        <v>7105</v>
       </c>
       <c r="Q3">
-        <v>101818</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025-08-03</v>
+        <v>2025-07-01</v>
       </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>90</v>
       </c>
-      <c r="C4">
-        <v>9009</v>
-      </c>
       <c r="D4">
-        <v>909</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>124529</v>
       </c>
       <c r="F4">
-        <v>9090</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>909</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>9</v>
       </c>
       <c r="J4">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>10089</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="N4">
-        <v>999</v>
+        <v>9</v>
       </c>
       <c r="O4">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="P4">
-        <v>11088</v>
+        <v>36</v>
       </c>
       <c r="Q4">
-        <v>189</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025-08-04</v>
+        <v>2025-09-01</v>
       </c>
       <c r="B5">
-        <v>9090</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>909</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="H5">
-        <v>909</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>909</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>9189</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>1089</v>
+        <v>27</v>
       </c>
       <c r="N5">
-        <v>1818</v>
+        <v>18</v>
       </c>
       <c r="O5">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="P5">
-        <v>11007</v>
+        <v>45</v>
       </c>
       <c r="Q5">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2025-08-14</v>
-      </c>
-      <c r="B6">
-        <v>99990</v>
-      </c>
-      <c r="C6">
-        <v>87788</v>
-      </c>
-      <c r="D6">
-        <v>787887</v>
-      </c>
-      <c r="E6">
-        <v>87887</v>
-      </c>
-      <c r="F6">
-        <v>78787</v>
-      </c>
-      <c r="G6">
-        <v>787878</v>
-      </c>
-      <c r="H6">
-        <v>8777</v>
-      </c>
-      <c r="I6">
-        <v>8787</v>
-      </c>
-      <c r="J6">
-        <v>78</v>
-      </c>
-      <c r="K6">
-        <v>7878</v>
-      </c>
-      <c r="L6">
-        <v>966664</v>
-      </c>
-      <c r="M6">
-        <v>963553</v>
-      </c>
-      <c r="N6">
-        <v>8855</v>
-      </c>
-      <c r="O6">
-        <v>16665</v>
-      </c>
-      <c r="P6">
-        <v>975519</v>
-      </c>
-      <c r="Q6">
-        <v>980218</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2025-08-28</v>
-      </c>
-      <c r="B7">
-        <v>7877</v>
-      </c>
-      <c r="C7">
-        <v>8787</v>
-      </c>
-      <c r="D7">
-        <v>787</v>
-      </c>
-      <c r="E7">
-        <v>8787</v>
-      </c>
-      <c r="F7">
-        <v>87</v>
-      </c>
-      <c r="G7">
-        <v>878</v>
-      </c>
-      <c r="H7">
-        <v>7877</v>
-      </c>
-      <c r="I7">
-        <v>887</v>
-      </c>
-      <c r="J7">
-        <v>878</v>
-      </c>
-      <c r="K7">
-        <v>78</v>
-      </c>
-      <c r="L7">
-        <v>8751</v>
-      </c>
-      <c r="M7">
-        <v>18452</v>
-      </c>
-      <c r="N7">
-        <v>8755</v>
-      </c>
-      <c r="O7">
-        <v>965</v>
-      </c>
-      <c r="P7">
-        <v>17506</v>
-      </c>
-      <c r="Q7">
-        <v>19417</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>2025-08-29</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/production.xlsx
+++ b/production.xlsx
@@ -1,41 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web-development\production tracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EC0A54-54DE-47D3-B4C3-8E895693E52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Production" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>L1_m</t>
+  </si>
+  <si>
+    <t>L1_kg</t>
+  </si>
+  <si>
+    <t>L2_m</t>
+  </si>
+  <si>
+    <t>L2_kg</t>
+  </si>
+  <si>
+    <t>L3_m</t>
+  </si>
+  <si>
+    <t>L3_kg</t>
+  </si>
+  <si>
+    <t>L4_m</t>
+  </si>
+  <si>
+    <t>L4_kg</t>
+  </si>
+  <si>
+    <t>L5_m</t>
+  </si>
+  <si>
+    <t>L5_kg</t>
+  </si>
+  <si>
+    <t>Machine1_m</t>
+  </si>
+  <si>
+    <t>Machine1_kg</t>
+  </si>
+  <si>
+    <t>Machine2_m</t>
+  </si>
+  <si>
+    <t>Machine2_kg</t>
+  </si>
+  <si>
+    <t>Grand_m</t>
+  </si>
+  <si>
+    <t>Grand_kg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +107,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,280 +446,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B1" t="str">
-        <v>L1_m</v>
-      </c>
-      <c r="C1" t="str">
-        <v>L1_kg</v>
-      </c>
-      <c r="D1" t="str">
-        <v>L2_m</v>
-      </c>
-      <c r="E1" t="str">
-        <v>L2_kg</v>
-      </c>
-      <c r="F1" t="str">
-        <v>L3_m</v>
-      </c>
-      <c r="G1" t="str">
-        <v>L3_kg</v>
-      </c>
-      <c r="H1" t="str">
-        <v>L4_m</v>
-      </c>
-      <c r="I1" t="str">
-        <v>L4_kg</v>
-      </c>
-      <c r="J1" t="str">
-        <v>L5_m</v>
-      </c>
-      <c r="K1" t="str">
-        <v>L5_kg</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Machine1_m</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Machine1_kg</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Machine2_m</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Machine2_kg</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Grand_m</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Grand_kg</v>
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>2025-08-30</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>88</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>80</v>
-      </c>
-      <c r="F2">
-        <v>880</v>
-      </c>
-      <c r="G2">
-        <v>88</v>
-      </c>
-      <c r="H2">
-        <v>88</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>89</v>
-      </c>
-      <c r="K2">
-        <v>8</v>
-      </c>
-      <c r="L2">
-        <v>104</v>
-      </c>
-      <c r="M2">
-        <v>184</v>
-      </c>
-      <c r="N2">
-        <v>96</v>
-      </c>
-      <c r="O2">
-        <v>16</v>
-      </c>
-      <c r="P2">
-        <v>200</v>
-      </c>
-      <c r="Q2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2025-08-31</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>800</v>
-      </c>
-      <c r="D3">
-        <v>70</v>
-      </c>
-      <c r="E3">
-        <v>60</v>
-      </c>
-      <c r="F3">
-        <v>80</v>
-      </c>
-      <c r="G3">
-        <v>99</v>
-      </c>
-      <c r="H3">
-        <v>76</v>
-      </c>
-      <c r="I3">
-        <v>78</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>98</v>
-      </c>
-      <c r="L3">
-        <v>240</v>
-      </c>
-      <c r="M3">
-        <v>239</v>
-      </c>
-      <c r="N3">
-        <v>6865</v>
-      </c>
-      <c r="O3">
-        <v>176</v>
-      </c>
-      <c r="P3">
-        <v>7105</v>
-      </c>
-      <c r="Q3">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2025-07-01</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>90</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>124529</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <v>27</v>
-      </c>
-      <c r="M4">
-        <v>108</v>
-      </c>
-      <c r="N4">
-        <v>9</v>
-      </c>
-      <c r="O4">
-        <v>18</v>
-      </c>
-      <c r="P4">
-        <v>36</v>
-      </c>
-      <c r="Q4">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2025-09-01</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>27</v>
-      </c>
-      <c r="M5">
-        <v>27</v>
-      </c>
-      <c r="N5">
-        <v>18</v>
-      </c>
-      <c r="O5">
-        <v>18</v>
-      </c>
-      <c r="P5">
-        <v>45</v>
-      </c>
-      <c r="Q5">
-        <v>45</v>
-      </c>
-    </row>
+    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q5"/>
+    <ignoredError sqref="A1:Q1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>